--- a/25-26/Invoices 25-26/01 BK001 Mar 25-26 AA Stone Investment Trading Company (VK)(Nam vu) Absolute Short/Invoice template, PO, Packing List, Proforma invoice.xlsx
+++ b/25-26/Invoices 25-26/01 BK001 Mar 25-26 AA Stone Investment Trading Company (VK)(Nam vu) Absolute Short/Invoice template, PO, Packing List, Proforma invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\BK Exports bills\25-26\Invoices 25-26\01 BK001 Mar 25-26 AA Stone Investment Trading Company (VK)(Nam vu) Absolute Short\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B80E884-4847-4221-99EB-D92D62BB2D47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C6B6A4-5A69-4D2A-B4CE-A52966D00725}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1307,53 +1307,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1380,73 +1385,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1480,6 +1444,92 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1501,61 +1551,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -31243,7 +31243,7 @@
   <dimension ref="A1:J998"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31262,7 +31262,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="101" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="73"/>
@@ -31276,16 +31276,16 @@
       <c r="J1" s="73"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -31294,16 +31294,16 @@
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="75" t="s">
+      <c r="F3" s="85"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="84"/>
-      <c r="J3" s="76"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="82"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -31312,18 +31312,18 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="20"/>
-      <c r="E4" s="101" t="str">
+      <c r="E4" s="102" t="str">
         <f>'input data'!B3</f>
         <v>BK001/25-26</v>
       </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="102">
+      <c r="F4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="103">
         <f>'input data'!B4</f>
         <v>45766</v>
       </c>
-      <c r="I4" s="80"/>
-      <c r="J4" s="78"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
@@ -31332,16 +31332,16 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="20"/>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="75" t="s">
+      <c r="F5" s="85"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="84"/>
-      <c r="J5" s="76"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="82"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
@@ -31350,15 +31350,15 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="106" t="str">
+      <c r="E6" s="97"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="96" t="str">
         <f>'input data'!B5</f>
         <v>AD2403250650768</v>
       </c>
-      <c r="I6" s="80"/>
-      <c r="J6" s="78"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
@@ -31367,16 +31367,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="84"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="75" t="s">
+      <c r="F7" s="85"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="84"/>
-      <c r="J7" s="76"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="82"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
@@ -31385,16 +31385,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="79" t="s">
+      <c r="E8" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="80"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="77" t="s">
+      <c r="F8" s="79"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="80"/>
-      <c r="J8" s="78"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="80"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -31403,16 +31403,16 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="84"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="75" t="s">
+      <c r="F9" s="85"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="84"/>
-      <c r="J9" s="76"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="82"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -31421,69 +31421,69 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="97" t="str">
+      <c r="E10" s="90" t="str">
         <f>'input data'!B14</f>
         <v>Loose packing</v>
       </c>
       <c r="F10" s="73"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="97" t="str">
+      <c r="G10" s="76"/>
+      <c r="H10" s="90" t="str">
         <f>'input data'!B13 &amp; " " &amp; 'input data'!B15</f>
         <v>1 FCL</v>
       </c>
       <c r="I10" s="73"/>
-      <c r="J10" s="86"/>
+      <c r="J10" s="76"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="103" t="s">
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="104" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="92"/>
       <c r="G11" s="93"/>
-      <c r="H11" s="108" t="s">
+      <c r="H11" s="91" t="s">
         <v>59</v>
       </c>
       <c r="I11" s="92"/>
       <c r="J11" s="93"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="104" t="str">
+      <c r="A12" s="105" t="str">
         <f>'input data'!B6</f>
         <v>To the Order</v>
       </c>
       <c r="B12" s="73"/>
       <c r="C12" s="73"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="105" t="str">
+      <c r="D12" s="76"/>
+      <c r="E12" s="106" t="str">
         <f>'input data'!B16</f>
         <v>CNF</v>
       </c>
       <c r="F12" s="73"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="109" t="str">
+      <c r="G12" s="76"/>
+      <c r="H12" s="94" t="str">
         <f>'input data'!B17</f>
         <v>100% Against Documents</v>
       </c>
       <c r="I12" s="73"/>
-      <c r="J12" s="86"/>
+      <c r="J12" s="76"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="20"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="80"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -31492,17 +31492,17 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="110" t="s">
+      <c r="E14" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="76"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="82"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="111" t="str">
+      <c r="A15" s="75" t="str">
         <f>'input data'!B7</f>
         <v>A-A STONE INVESTMENT TRADING COMPANY LIMITED
  34/5 TRAN KHANH DU STREET, TAN DINH WARD, 
@@ -31513,225 +31513,225 @@
       </c>
       <c r="B15" s="73"/>
       <c r="C15" s="73"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="85"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="77"/>
       <c r="F15" s="73"/>
       <c r="G15" s="73"/>
       <c r="H15" s="73"/>
       <c r="I15" s="73"/>
-      <c r="J15" s="86"/>
+      <c r="J15" s="76"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="85"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="73"/>
       <c r="C16" s="73"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="85"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="77"/>
       <c r="F16" s="73"/>
       <c r="G16" s="73"/>
       <c r="H16" s="73"/>
       <c r="I16" s="73"/>
-      <c r="J16" s="86"/>
+      <c r="J16" s="76"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="85"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="73"/>
       <c r="C17" s="73"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="85"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77"/>
       <c r="F17" s="73"/>
       <c r="G17" s="73"/>
       <c r="H17" s="73"/>
       <c r="I17" s="73"/>
-      <c r="J17" s="86"/>
+      <c r="J17" s="76"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="85"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="73"/>
       <c r="C18" s="73"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="85"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77"/>
       <c r="F18" s="73"/>
       <c r="G18" s="73"/>
       <c r="H18" s="73"/>
       <c r="I18" s="73"/>
-      <c r="J18" s="86"/>
+      <c r="J18" s="76"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="85"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="73"/>
       <c r="C19" s="73"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="85"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="77"/>
       <c r="F19" s="73"/>
       <c r="G19" s="73"/>
       <c r="H19" s="73"/>
       <c r="I19" s="73"/>
-      <c r="J19" s="86"/>
+      <c r="J19" s="76"/>
     </row>
     <row r="20" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="78"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="80"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="107" t="s">
+      <c r="A21" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="107" t="s">
+      <c r="B21" s="82"/>
+      <c r="C21" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="107" t="s">
+      <c r="D21" s="82"/>
+      <c r="E21" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="84"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="107" t="s">
+      <c r="F21" s="85"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="84"/>
-      <c r="J21" s="76"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="82"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="112" t="s">
+      <c r="A22" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="114" t="str">
+      <c r="B22" s="76"/>
+      <c r="C22" s="87" t="str">
         <f>'input data'!B19</f>
         <v>CHENNAI</v>
       </c>
-      <c r="D22" s="86"/>
-      <c r="E22" s="115" t="s">
+      <c r="D22" s="76"/>
+      <c r="E22" s="88" t="s">
         <v>65</v>
       </c>
       <c r="F22" s="73"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="115" t="str">
+      <c r="G22" s="76"/>
+      <c r="H22" s="88" t="str">
         <f>'input data'!B23</f>
         <v>VIETNAM</v>
       </c>
       <c r="I22" s="73"/>
-      <c r="J22" s="86"/>
+      <c r="J22" s="76"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="116"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="78"/>
+      <c r="A23" s="89"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="80"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="113" t="s">
+      <c r="B24" s="82"/>
+      <c r="C24" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="76"/>
-      <c r="E24" s="75" t="s">
+      <c r="D24" s="82"/>
+      <c r="E24" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="84"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="113" t="s">
+      <c r="F24" s="85"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="84"/>
-      <c r="J24" s="76"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="82"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="79"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="77" t="str">
+      <c r="A25" s="97"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="98" t="str">
         <f>'input data'!B20</f>
         <v>CHENNAI</v>
       </c>
-      <c r="D25" s="78"/>
-      <c r="E25" s="77" t="str">
+      <c r="D25" s="80"/>
+      <c r="E25" s="98" t="str">
         <f>'input data'!B21</f>
         <v>DA NANG</v>
       </c>
-      <c r="F25" s="80"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="77" t="str">
+      <c r="F25" s="79"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="98" t="str">
         <f>'input data'!B22</f>
         <v>DA NANG</v>
       </c>
-      <c r="I25" s="80"/>
-      <c r="J25" s="78"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="80"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="81" t="s">
+      <c r="A26" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="81" t="s">
+      <c r="C26" s="85"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="75" t="s">
+      <c r="F26" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="76"/>
+      <c r="G26" s="82"/>
       <c r="H26" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="75" t="s">
+      <c r="I26" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="J26" s="76"/>
+      <c r="J26" s="82"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="82"/>
-      <c r="B27" s="85"/>
+      <c r="A27" s="115"/>
+      <c r="B27" s="77"/>
       <c r="C27" s="73"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="77" t="s">
+      <c r="D27" s="76"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="78"/>
+      <c r="G27" s="80"/>
       <c r="H27" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="77" t="s">
+      <c r="I27" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="78"/>
+      <c r="J27" s="80"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="27">
         <v>1</v>
       </c>
-      <c r="B28" s="91" t="str">
+      <c r="B28" s="112" t="str">
         <f>'input data'!B18</f>
         <v>POLISHED GRANITE SLABS</v>
       </c>
       <c r="C28" s="92"/>
       <c r="D28" s="93"/>
       <c r="E28" s="28">
-        <v>68029310</v>
+        <v>68022390</v>
       </c>
-      <c r="F28" s="94">
+      <c r="F28" s="113">
         <f>'input data'!B26</f>
         <v>439.47</v>
       </c>
@@ -31739,7 +31739,7 @@
       <c r="H28" s="29">
         <v>18.02</v>
       </c>
-      <c r="I28" s="95">
+      <c r="I28" s="107">
         <f>H28*F28</f>
         <v>7919.2494000000006</v>
       </c>
@@ -31747,12 +31747,12 @@
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="78"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="80"/>
       <c r="E29" s="30"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="78"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="80"/>
       <c r="H29" s="31"/>
       <c r="I29" s="32"/>
       <c r="J29" s="31"/>
@@ -31778,7 +31778,7 @@
       <c r="J30" s="20"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="97" t="str">
+      <c r="A31" s="90" t="str">
         <f>UPPER('input data'!B24)</f>
         <v>WHSU2212089</v>
       </c>
@@ -31805,7 +31805,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="96"/>
+      <c r="F32" s="108"/>
       <c r="G32" s="73"/>
       <c r="H32" s="20"/>
       <c r="I32" s="19"/>
@@ -31834,11 +31834,11 @@
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="18"/>
-      <c r="I34" s="98">
+      <c r="I34" s="99">
         <f>SUM(I28:J33)</f>
         <v>7919.2494000000006</v>
       </c>
-      <c r="J34" s="76"/>
+      <c r="J34" s="82"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35" t="s">
@@ -31851,32 +31851,32 @@
       <c r="F35" s="34"/>
       <c r="G35" s="34"/>
       <c r="H35" s="31"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="80"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="87" t="s">
+      <c r="A36" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="99" t="s">
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="76"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="82"/>
     </row>
     <row r="37" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="88" t="s">
+      <c r="A37" s="110" t="s">
         <v>81</v>
       </c>
       <c r="B37" s="73"/>
       <c r="C37" s="73"/>
-      <c r="D37" s="86"/>
+      <c r="D37" s="76"/>
       <c r="E37" s="19" t="s">
         <v>82</v>
       </c>
@@ -31887,10 +31887,10 @@
       <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="85"/>
+      <c r="A38" s="77"/>
       <c r="B38" s="73"/>
       <c r="C38" s="73"/>
-      <c r="D38" s="86"/>
+      <c r="D38" s="76"/>
       <c r="E38" s="19"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -31899,12 +31899,12 @@
       <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="89" t="s">
+      <c r="A39" s="111" t="s">
         <v>83</v>
       </c>
       <c r="B39" s="73"/>
       <c r="C39" s="73"/>
-      <c r="D39" s="86"/>
+      <c r="D39" s="76"/>
       <c r="E39" s="19"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -31913,10 +31913,10 @@
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="90"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="78"/>
+      <c r="A40" s="78"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="80"/>
       <c r="E40" s="32" t="s">
         <v>84</v>
       </c>
@@ -32886,30 +32886,27 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A15:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:G23"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J13"/>
-    <mergeCell ref="E14:J20"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D38"/>
+    <mergeCell ref="A39:D40"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="I34:J35"/>
     <mergeCell ref="E36:J36"/>
     <mergeCell ref="A1:J2"/>
@@ -32926,27 +32923,30 @@
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="E12:G13"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D38"/>
-    <mergeCell ref="A39:D40"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J13"/>
+    <mergeCell ref="E14:J20"/>
+    <mergeCell ref="A15:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:G23"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -32975,7 +32975,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="135" t="s">
         <v>85</v>
       </c>
       <c r="B1" s="73"/>
@@ -32989,42 +32989,42 @@
       <c r="J1" s="73"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="75" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="76"/>
-      <c r="I2" s="117" t="s">
+      <c r="H2" s="82"/>
+      <c r="I2" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="76"/>
+      <c r="J2" s="82"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="137" t="s">
         <v>87</v>
       </c>
       <c r="B3" s="73"/>
       <c r="C3" s="73"/>
       <c r="D3" s="73"/>
       <c r="E3" s="73"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="101" t="str">
+      <c r="F3" s="76"/>
+      <c r="G3" s="102" t="str">
         <f>Invoice!E4</f>
         <v>BK001/25-26</v>
       </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="102">
+      <c r="H3" s="80"/>
+      <c r="I3" s="103">
         <f>Invoice!H4</f>
         <v>45766</v>
       </c>
-      <c r="J3" s="78"/>
+      <c r="J3" s="80"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -33035,12 +33035,12 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="20"/>
-      <c r="G4" s="117" t="s">
+      <c r="G4" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="76"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="82"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -33051,16 +33051,16 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="20"/>
-      <c r="G5" s="77" t="str">
+      <c r="G5" s="98" t="str">
         <f>'input data'!B5</f>
         <v>AD2403250650768</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="78"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="138" t="s">
         <v>90</v>
       </c>
       <c r="B6" s="73"/>
@@ -33136,13 +33136,13 @@
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
       <c r="F11" s="18"/>
       <c r="G11" s="37" t="s">
         <v>96</v>
@@ -33152,7 +33152,7 @@
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="121" t="str">
+      <c r="A12" s="140" t="str">
         <f>'input data'!B6</f>
         <v>To the Order</v>
       </c>
@@ -33167,11 +33167,11 @@
       <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="90"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
       <c r="F13" s="31"/>
       <c r="G13" s="19"/>
       <c r="H13" s="4"/>
@@ -33179,21 +33179,21 @@
       <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="76"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="82"/>
       <c r="G14" s="19"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="111" t="str">
+      <c r="A15" s="75" t="str">
         <f>Invoice!A15</f>
         <v>A-A STONE INVESTMENT TRADING COMPANY LIMITED
  34/5 TRAN KHANH DU STREET, TAN DINH WARD, 
@@ -33206,93 +33206,93 @@
       <c r="C15" s="73"/>
       <c r="D15" s="73"/>
       <c r="E15" s="73"/>
-      <c r="F15" s="86"/>
+      <c r="F15" s="76"/>
       <c r="G15" s="19"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="85"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="73"/>
       <c r="C16" s="73"/>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
-      <c r="F16" s="86"/>
+      <c r="F16" s="76"/>
       <c r="G16" s="19"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="85"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="73"/>
       <c r="C17" s="73"/>
       <c r="D17" s="73"/>
       <c r="E17" s="73"/>
-      <c r="F17" s="86"/>
+      <c r="F17" s="76"/>
       <c r="G17" s="19"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="85"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="73"/>
       <c r="C18" s="73"/>
       <c r="D18" s="73"/>
       <c r="E18" s="73"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="118" t="s">
+      <c r="F18" s="76"/>
+      <c r="G18" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="76"/>
-      <c r="I18" s="127" t="s">
+      <c r="H18" s="82"/>
+      <c r="I18" s="133" t="s">
         <v>98</v>
       </c>
-      <c r="J18" s="76"/>
+      <c r="J18" s="82"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="85"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="73"/>
       <c r="C19" s="73"/>
       <c r="D19" s="73"/>
       <c r="E19" s="73"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="78"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="80"/>
     </row>
     <row r="20" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="128" t="s">
+      <c r="A20" s="78"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="78"/>
-      <c r="I20" s="128" t="str">
+      <c r="H20" s="80"/>
+      <c r="I20" s="134" t="str">
         <f>Invoice!H22</f>
         <v>VIETNAM</v>
       </c>
-      <c r="J20" s="78"/>
+      <c r="J20" s="80"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="122" t="s">
+      <c r="A21" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="122" t="s">
+      <c r="B21" s="85"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="130" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="84"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="123" t="s">
+      <c r="E21" s="85"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="141" t="s">
         <v>101</v>
       </c>
       <c r="H21" s="92"/>
@@ -33300,66 +33300,66 @@
       <c r="J21" s="93"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="77" t="str">
+      <c r="A22" s="97"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="98" t="str">
         <f>Invoice!C22</f>
         <v>CHENNAI</v>
       </c>
-      <c r="E22" s="80"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="126" t="str">
+      <c r="E22" s="79"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="131" t="str">
         <f>'input data'!B16</f>
         <v>CNF</v>
       </c>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="78"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="80"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="122" t="s">
+      <c r="A23" s="130" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="84"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="122" t="s">
+      <c r="B23" s="85"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="130" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="84"/>
-      <c r="F23" s="76"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="82"/>
       <c r="G23" s="44"/>
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
       <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="79"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="77" t="str">
+      <c r="A24" s="97"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="98" t="str">
         <f>Invoice!C25</f>
         <v>CHENNAI</v>
       </c>
-      <c r="E24" s="80"/>
-      <c r="F24" s="78"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="80"/>
       <c r="G24" s="32"/>
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
       <c r="J24" s="31"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="122" t="s">
+      <c r="A25" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="84"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="122" t="s">
+      <c r="B25" s="85"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="84"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="129" t="s">
+      <c r="E25" s="85"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="117" t="s">
         <v>104</v>
       </c>
       <c r="H25" s="92"/>
@@ -33367,25 +33367,25 @@
       <c r="J25" s="93"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="116" t="str">
+      <c r="A26" s="89" t="str">
         <f>Invoice!E25</f>
         <v>DA NANG</v>
       </c>
       <c r="B26" s="73"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="116" t="str">
+      <c r="C26" s="76"/>
+      <c r="D26" s="89" t="str">
         <f>Invoice!H25</f>
         <v>DA NANG</v>
       </c>
       <c r="E26" s="73"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="118" t="str">
+      <c r="F26" s="76"/>
+      <c r="G26" s="132" t="str">
         <f>'input data'!B17</f>
         <v>100% Against Documents</v>
       </c>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="76"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="82"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47"/>
@@ -33403,32 +33403,32 @@
       <c r="A28" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="78"/>
-      <c r="D28" s="77" t="s">
+      <c r="C28" s="80"/>
+      <c r="D28" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
       <c r="G28" s="50"/>
       <c r="H28" s="51"/>
-      <c r="I28" s="77" t="s">
+      <c r="I28" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="78"/>
+      <c r="J28" s="80"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>1</v>
       </c>
-      <c r="B29" s="91">
+      <c r="B29" s="112">
         <f>Invoice!E28</f>
-        <v>68029310</v>
+        <v>68022390</v>
       </c>
       <c r="C29" s="93"/>
-      <c r="D29" s="139" t="str">
+      <c r="D29" s="127" t="str">
         <f>Invoice!B28</f>
         <v>POLISHED GRANITE SLABS</v>
       </c>
@@ -33436,7 +33436,7 @@
       <c r="F29" s="92"/>
       <c r="G29" s="92"/>
       <c r="H29" s="93"/>
-      <c r="I29" s="140">
+      <c r="I29" s="128">
         <f>Invoice!F28</f>
         <v>439.47</v>
       </c>
@@ -33453,7 +33453,7 @@
       <c r="F30" s="48"/>
       <c r="G30" s="48"/>
       <c r="H30" s="48"/>
-      <c r="I30" s="141">
+      <c r="I30" s="129">
         <f>SUM(I29:J29)</f>
         <v>439.47</v>
       </c>
@@ -33472,14 +33472,14 @@
       <c r="J31" s="36"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="116" t="s">
+      <c r="A32" s="89" t="s">
         <v>107</v>
       </c>
       <c r="B32" s="73"/>
       <c r="C32" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="96" t="s">
+      <c r="D32" s="108" t="s">
         <v>74</v>
       </c>
       <c r="E32" s="73"/>
@@ -33492,7 +33492,7 @@
       <c r="J32" s="36"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="97" t="str">
+      <c r="A33" s="90" t="str">
         <f>Invoice!A31</f>
         <v>WHSU2212089</v>
       </c>
@@ -33501,7 +33501,7 @@
         <f>'input data'!B25</f>
         <v>476</v>
       </c>
-      <c r="D33" s="137" t="s">
+      <c r="D33" s="125" t="s">
         <v>108</v>
       </c>
       <c r="E33" s="73"/>
@@ -33569,64 +33569,64 @@
       <c r="J37" s="58"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="99" t="s">
+      <c r="A38" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="99" t="s">
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="76"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="82"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="138" t="s">
+      <c r="A39" s="126" t="s">
         <v>113</v>
       </c>
       <c r="B39" s="73"/>
       <c r="C39" s="73"/>
       <c r="D39" s="73"/>
       <c r="E39" s="73"/>
-      <c r="F39" s="86"/>
+      <c r="F39" s="76"/>
       <c r="G39" s="19"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="130" t="s">
+      <c r="A40" s="118" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="131"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="131"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="132"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="120"/>
       <c r="G40" s="19"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="20"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="133" t="s">
+      <c r="A41" s="121" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="134"/>
-      <c r="C41" s="134"/>
-      <c r="D41" s="134"/>
-      <c r="E41" s="134"/>
-      <c r="F41" s="135"/>
-      <c r="G41" s="136" t="s">
+      <c r="B41" s="122"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="122"/>
+      <c r="F41" s="123"/>
+      <c r="G41" s="124" t="s">
         <v>116</v>
       </c>
-      <c r="H41" s="80"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="78"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="80"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -34587,6 +34587,41 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:J25"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A40:F40"/>
@@ -34603,41 +34638,6 @@
     <mergeCell ref="D29:H29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -34668,58 +34668,58 @@
   <sheetData>
     <row r="1" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="59"/>
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="162" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="144"/>
-      <c r="R1" s="148"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="164"/>
+      <c r="R1" s="168"/>
       <c r="S1" s="73"/>
       <c r="T1" s="73"/>
       <c r="U1" s="73"/>
       <c r="V1" s="73"/>
-      <c r="W1" s="149"/>
+      <c r="W1" s="151"/>
       <c r="X1" s="73"/>
       <c r="Y1" s="73"/>
     </row>
     <row r="2" spans="1:25" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="59"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="147"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="167"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="60"/>
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="169" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="76"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="82"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="170" t="s">
         <v>118</v>
       </c>
       <c r="C4" s="73"/>
@@ -34730,22 +34730,22 @@
       <c r="H4" s="73"/>
       <c r="I4" s="73"/>
       <c r="J4" s="73"/>
-      <c r="K4" s="86"/>
+      <c r="K4" s="76"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="53"/>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="78"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -34762,7 +34762,7 @@
     </row>
     <row r="7" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="61"/>
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="160" t="s">
         <v>120</v>
       </c>
       <c r="C7" s="73"/>
@@ -34773,7 +34773,7 @@
       <c r="H7" s="73"/>
       <c r="I7" s="73"/>
       <c r="J7" s="73"/>
-      <c r="K7" s="86"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -34852,7 +34852,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="138" t="s">
         <v>156</v>
       </c>
       <c r="C13" s="73"/>
@@ -34867,7 +34867,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="63"/>
-      <c r="B14" s="111" t="s">
+      <c r="B14" s="75" t="s">
         <v>157</v>
       </c>
       <c r="C14" s="73"/>
@@ -34882,7 +34882,7 @@
     </row>
     <row r="15" spans="1:25" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="63"/>
-      <c r="B15" s="85"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="73"/>
       <c r="D15" s="73"/>
       <c r="E15" s="73"/>
@@ -34923,38 +34923,38 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="54"/>
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="103" t="s">
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="104" t="s">
         <v>126</v>
       </c>
       <c r="G18" s="93"/>
-      <c r="H18" s="103" t="s">
+      <c r="H18" s="104" t="s">
         <v>127</v>
       </c>
       <c r="I18" s="93"/>
-      <c r="J18" s="103" t="s">
+      <c r="J18" s="104" t="s">
         <v>128</v>
       </c>
       <c r="K18" s="93"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="139" t="s">
+      <c r="B19" s="127" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="156"/>
       <c r="D19" s="156"/>
       <c r="E19" s="157"/>
-      <c r="F19" s="103">
+      <c r="F19" s="104">
         <v>110.57</v>
       </c>
       <c r="G19" s="93"/>
-      <c r="H19" s="167">
+      <c r="H19" s="149">
         <v>4728</v>
       </c>
       <c r="I19" s="93"/>
@@ -34966,16 +34966,16 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="53"/>
-      <c r="B20" s="97"/>
+      <c r="B20" s="90"/>
       <c r="C20" s="73"/>
       <c r="D20" s="73"/>
       <c r="E20" s="73"/>
-      <c r="F20" s="149"/>
+      <c r="F20" s="151"/>
       <c r="G20" s="155"/>
-      <c r="H20" s="168" t="s">
+      <c r="H20" s="142" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="169"/>
+      <c r="I20" s="143"/>
       <c r="J20" s="158">
         <v>522</v>
       </c>
@@ -34983,38 +34983,38 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="B21" s="136"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
       <c r="F21" s="34"/>
       <c r="G21" s="64"/>
-      <c r="H21" s="163" t="s">
+      <c r="H21" s="145" t="s">
         <v>106</v>
       </c>
-      <c r="I21" s="164"/>
-      <c r="J21" s="165">
+      <c r="I21" s="146"/>
+      <c r="J21" s="147">
         <f>SUM(J19:K20)</f>
         <v>523296.95999999996</v>
       </c>
-      <c r="K21" s="166"/>
+      <c r="K21" s="148"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="53"/>
-      <c r="B22" s="97"/>
+      <c r="B22" s="90"/>
       <c r="C22" s="73"/>
       <c r="D22" s="73"/>
       <c r="E22" s="73"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="160"/>
+      <c r="H22" s="150"/>
       <c r="I22" s="73"/>
-      <c r="J22" s="149"/>
-      <c r="K22" s="86"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="76"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="161" t="s">
+      <c r="B23" s="152" t="s">
         <v>130</v>
       </c>
       <c r="C23" s="92"/>
@@ -35024,7 +35024,7 @@
       <c r="G23" s="48"/>
       <c r="H23" s="48"/>
       <c r="I23" s="48"/>
-      <c r="J23" s="162">
+      <c r="J23" s="153">
         <f>J21</f>
         <v>523296.95999999996</v>
       </c>
@@ -35045,7 +35045,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="65"/>
-      <c r="B25" s="170" t="s">
+      <c r="B25" s="144" t="s">
         <v>131</v>
       </c>
       <c r="C25" s="73"/>
@@ -35201,7 +35201,7 @@
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="66"/>
-      <c r="B35" s="125" t="s">
+      <c r="B35" s="137" t="s">
         <v>142</v>
       </c>
       <c r="C35" s="73"/>
@@ -35216,7 +35216,7 @@
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="66"/>
-      <c r="B36" s="125" t="s">
+      <c r="B36" s="137" t="s">
         <v>143</v>
       </c>
       <c r="C36" s="73"/>
@@ -36259,11 +36259,19 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B1:K2"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G15"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B18:E18"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -36278,19 +36286,11 @@
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G15"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B1:K2"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="78" orientation="portrait" r:id="rId1"/>
